--- a/6月/途礼商城/开发环境/基础测试/商品详情页面.xlsx
+++ b/6月/途礼商城/开发环境/基础测试/商品详情页面.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8220" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8220"/>
   </bookViews>
   <sheets>
     <sheet name="用户已登录" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="899" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="899" uniqueCount="206">
   <si>
     <t>撰写人</t>
   </si>
@@ -90,9 +90,6 @@
     <t>右侧</t>
   </si>
   <si>
-    <t>正确显示"用户名，退出，我的订单，购物车，FAQ"</t>
-  </si>
-  <si>
     <t>顶部导航（下层）</t>
   </si>
   <si>
@@ -621,19 +618,37 @@
   </si>
   <si>
     <t>逻辑一致性，详情不显示，但是列表显示此图标</t>
+  </si>
+  <si>
+    <t>搜索框和购物车栏目正确显示</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>并排显示总分类名称，首页，专题名称</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>斯维登logo和途礼logo正确显示，图片清晰</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>正确显示"用户名，退出，我的订单，购物车，FAQ"</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>左侧LOGO</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -646,6 +661,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -654,7 +670,8 @@
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -662,36 +679,16 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -699,110 +696,19 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="9"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C5700"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -811,7 +717,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.8"/>
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -821,194 +727,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="17">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1124,260 +844,21 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1386,7 +867,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1426,58 +907,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1492,7 +933,7 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="303030"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -1739,19 +1180,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J83"/>
   <sheetViews>
-    <sheetView topLeftCell="B11" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.375" customWidth="1"/>
     <col min="2" max="2" width="20.25" customWidth="1"/>
@@ -1765,7 +1206,7 @@
     <col min="10" max="10" width="26.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20.75" customHeight="1" spans="1:10">
+    <row r="1" spans="1:10" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1781,7 +1222,7 @@
       <c r="I1" s="2"/>
       <c r="J1" s="17"/>
     </row>
-    <row r="2" ht="20.75" customHeight="1" spans="1:9">
+    <row r="2" spans="1:10" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1796,7 +1237,7 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" ht="42" customHeight="1" spans="1:9">
+    <row r="3" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1811,7 +1252,7 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" ht="20.75" customHeight="1" spans="1:9">
+    <row r="4" spans="1:10" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
@@ -1826,7 +1267,7 @@
       <c r="H4" s="16"/>
       <c r="I4" s="18"/>
     </row>
-    <row r="5" ht="20.75" customHeight="1" spans="1:10">
+    <row r="5" spans="1:10" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>7</v>
       </c>
@@ -1858,7 +1299,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" ht="35" customHeight="1" spans="1:10">
+    <row r="6" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
         <v>16</v>
       </c>
@@ -1886,15 +1327,15 @@
       <c r="I6" s="12"/>
       <c r="J6" s="21"/>
     </row>
-    <row r="7" ht="20.75" customHeight="1" spans="1:10">
+    <row r="7" spans="1:10" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="13"/>
       <c r="B7" s="13"/>
       <c r="C7" s="14"/>
       <c r="D7" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="14" t="s">
-        <v>24</v>
+      <c r="E7" s="23" t="s">
+        <v>203</v>
       </c>
       <c r="F7" s="14" t="s">
         <v>21</v>
@@ -1908,17 +1349,17 @@
       <c r="I7" s="14"/>
       <c r="J7" s="22"/>
     </row>
-    <row r="8" ht="20.75" customHeight="1" spans="1:10">
+    <row r="8" spans="1:10" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>27</v>
+        <v>24</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>204</v>
+      </c>
+      <c r="E8" s="24" t="s">
+        <v>202</v>
       </c>
       <c r="F8" s="12" t="s">
         <v>21</v>
@@ -1932,15 +1373,15 @@
       <c r="I8" s="12"/>
       <c r="J8" s="21"/>
     </row>
-    <row r="9" ht="20.75" customHeight="1" spans="1:10">
+    <row r="9" spans="1:10" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="13"/>
       <c r="B9" s="13"/>
       <c r="C9" s="14"/>
       <c r="D9" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>29</v>
+        <v>27</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>200</v>
       </c>
       <c r="F9" s="14" t="s">
         <v>21</v>
@@ -1954,17 +1395,17 @@
       <c r="I9" s="14"/>
       <c r="J9" s="22"/>
     </row>
-    <row r="10" ht="20.75" customHeight="1" spans="1:10">
+    <row r="10" spans="1:10" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="11"/>
       <c r="B10" s="11"/>
       <c r="C10" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>32</v>
+      <c r="E10" s="24" t="s">
+        <v>201</v>
       </c>
       <c r="F10" s="12" t="s">
         <v>21</v>
@@ -1978,15 +1419,15 @@
       <c r="I10" s="12"/>
       <c r="J10" s="21"/>
     </row>
-    <row r="11" ht="20.75" customHeight="1" spans="1:10">
+    <row r="11" spans="1:10" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="13"/>
       <c r="B11" s="13"/>
       <c r="C11" s="14"/>
       <c r="D11" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="14" t="s">
         <v>33</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>34</v>
       </c>
       <c r="F11" s="14" t="s">
         <v>21</v>
@@ -2000,17 +1441,17 @@
       <c r="I11" s="14"/>
       <c r="J11" s="22"/>
     </row>
-    <row r="12" ht="20.75" customHeight="1" spans="1:10">
+    <row r="12" spans="1:10" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="11"/>
       <c r="B12" s="11"/>
       <c r="C12" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="E12" s="12" t="s">
         <v>36</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>37</v>
       </c>
       <c r="F12" s="12" t="s">
         <v>21</v>
@@ -2023,42 +1464,42 @@
       </c>
       <c r="I12" s="12"/>
       <c r="J12" s="21" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" ht="20.75" customHeight="1" spans="1:10">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="13"/>
       <c r="B13" s="13"/>
       <c r="C13" s="14"/>
       <c r="D13" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="E13" s="14" t="s">
-        <v>40</v>
-      </c>
       <c r="F13" s="14" t="s">
         <v>21</v>
       </c>
       <c r="G13" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="H13" s="14" t="s">
+      <c r="H13" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="I13" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="I13" s="14" t="s">
-        <v>42</v>
-      </c>
       <c r="J13" s="22"/>
     </row>
-    <row r="14" ht="20.75" customHeight="1" spans="1:10">
+    <row r="14" spans="1:10" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="11"/>
       <c r="B14" s="11"/>
       <c r="C14" s="12"/>
       <c r="D14" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="12" t="s">
         <v>43</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>44</v>
       </c>
       <c r="F14" s="12" t="s">
         <v>21</v>
@@ -2072,17 +1513,17 @@
       <c r="I14" s="12"/>
       <c r="J14" s="21"/>
     </row>
-    <row r="15" ht="20.75" customHeight="1" spans="1:10">
+    <row r="15" spans="1:10" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="13"/>
       <c r="B15" s="13"/>
       <c r="C15" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="E15" s="14" t="s">
         <v>46</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>47</v>
       </c>
       <c r="F15" s="14" t="s">
         <v>21</v>
@@ -2096,15 +1537,15 @@
       <c r="I15" s="14"/>
       <c r="J15" s="22"/>
     </row>
-    <row r="16" ht="20.75" customHeight="1" spans="1:10">
+    <row r="16" spans="1:10" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="11"/>
       <c r="B16" s="11"/>
       <c r="C16" s="12"/>
       <c r="D16" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" s="12" t="s">
         <v>48</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>49</v>
       </c>
       <c r="F16" s="12" t="s">
         <v>21</v>
@@ -2118,22 +1559,22 @@
       <c r="I16" s="12"/>
       <c r="J16" s="21"/>
     </row>
-    <row r="17" ht="20.75" customHeight="1" spans="1:10">
+    <row r="17" spans="1:10" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="13"/>
       <c r="B17" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C17" s="14" t="s">
         <v>18</v>
       </c>
       <c r="D17" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="E17" s="14" t="s">
-        <v>52</v>
-      </c>
       <c r="F17" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G17" s="14" t="s">
         <v>1</v>
@@ -2144,18 +1585,18 @@
       <c r="I17" s="14"/>
       <c r="J17" s="22"/>
     </row>
-    <row r="18" ht="20.75" customHeight="1" spans="1:10">
+    <row r="18" spans="1:10" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="11"/>
       <c r="B18" s="11"/>
       <c r="C18" s="12"/>
       <c r="D18" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E18" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="E18" s="12" t="s">
-        <v>54</v>
-      </c>
       <c r="F18" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G18" s="12" t="s">
         <v>1</v>
@@ -2166,18 +1607,18 @@
       <c r="I18" s="12"/>
       <c r="J18" s="21"/>
     </row>
-    <row r="19" ht="20.75" customHeight="1" spans="1:10">
+    <row r="19" spans="1:10" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="13"/>
       <c r="B19" s="13"/>
       <c r="C19" s="14"/>
       <c r="D19" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="E19" s="14" t="s">
-        <v>56</v>
-      </c>
       <c r="F19" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G19" s="14" t="s">
         <v>1</v>
@@ -2188,18 +1629,18 @@
       <c r="I19" s="14"/>
       <c r="J19" s="22"/>
     </row>
-    <row r="20" ht="20.75" customHeight="1" spans="1:10">
+    <row r="20" spans="1:10" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="11"/>
       <c r="B20" s="11"/>
       <c r="C20" s="12"/>
       <c r="D20" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E20" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="E20" s="12" t="s">
-        <v>58</v>
-      </c>
       <c r="F20" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G20" s="12" t="s">
         <v>1</v>
@@ -2209,21 +1650,21 @@
       </c>
       <c r="I20" s="12"/>
       <c r="J20" s="21" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="21" ht="20.75" customHeight="1" spans="1:10">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="13"/>
       <c r="B21" s="13"/>
       <c r="C21" s="14"/>
       <c r="D21" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="E21" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="E21" s="14" t="s">
-        <v>61</v>
-      </c>
       <c r="F21" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G21" s="14" t="s">
         <v>1</v>
@@ -2234,20 +1675,20 @@
       <c r="I21" s="14"/>
       <c r="J21" s="22"/>
     </row>
-    <row r="22" ht="20.75" customHeight="1" spans="1:10">
+    <row r="22" spans="1:10" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="11"/>
       <c r="B22" s="11"/>
       <c r="C22" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D22" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="E22" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="E22" s="12" t="s">
-        <v>63</v>
-      </c>
       <c r="F22" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G22" s="12" t="s">
         <v>1</v>
@@ -2258,18 +1699,18 @@
       <c r="I22" s="12"/>
       <c r="J22" s="21"/>
     </row>
-    <row r="23" ht="20.75" customHeight="1" spans="1:10">
+    <row r="23" spans="1:10" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="13"/>
       <c r="B23" s="13"/>
       <c r="C23" s="14"/>
       <c r="D23" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="E23" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="E23" s="14" t="s">
-        <v>65</v>
-      </c>
       <c r="F23" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G23" s="14" t="s">
         <v>1</v>
@@ -2280,68 +1721,68 @@
       <c r="I23" s="14"/>
       <c r="J23" s="22"/>
     </row>
-    <row r="24" ht="20.75" customHeight="1" spans="1:10">
+    <row r="24" spans="1:10" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="11"/>
       <c r="B24" s="11"/>
       <c r="C24" s="12"/>
       <c r="D24" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="E24" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="E24" s="12" t="s">
+      <c r="F24" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H24" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="I24" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="F24" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="G24" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="H24" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="I24" s="12" t="s">
-        <v>68</v>
-      </c>
       <c r="J24" s="21"/>
     </row>
-    <row r="25" ht="20.75" customHeight="1" spans="1:10">
+    <row r="25" spans="1:10" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="13"/>
       <c r="B25" s="13"/>
       <c r="C25" s="14"/>
       <c r="D25" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="F25" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="G25" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="H25" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="I25" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="E25" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="F25" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="G25" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="H25" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="I25" s="14" t="s">
-        <v>70</v>
-      </c>
       <c r="J25" s="22"/>
     </row>
-    <row r="26" ht="20.75" customHeight="1" spans="1:10">
+    <row r="26" spans="1:10" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="11"/>
       <c r="B26" s="11"/>
       <c r="C26" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D26" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E26" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="E26" s="12" t="s">
-        <v>72</v>
-      </c>
       <c r="F26" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G26" s="12" t="s">
         <v>1</v>
@@ -2352,18 +1793,18 @@
       <c r="I26" s="12"/>
       <c r="J26" s="21"/>
     </row>
-    <row r="27" ht="20.75" customHeight="1" spans="1:10">
+    <row r="27" spans="1:10" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="13"/>
       <c r="B27" s="13"/>
       <c r="C27" s="14"/>
       <c r="D27" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="E27" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="E27" s="14" t="s">
-        <v>74</v>
-      </c>
       <c r="F27" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G27" s="14" t="s">
         <v>1</v>
@@ -2374,18 +1815,18 @@
       <c r="I27" s="14"/>
       <c r="J27" s="22"/>
     </row>
-    <row r="28" ht="20.75" customHeight="1" spans="1:10">
+    <row r="28" spans="1:10" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="11"/>
       <c r="B28" s="11"/>
       <c r="C28" s="12"/>
       <c r="D28" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E28" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="E28" s="12" t="s">
-        <v>76</v>
-      </c>
       <c r="F28" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G28" s="12" t="s">
         <v>1</v>
@@ -2396,18 +1837,18 @@
       <c r="I28" s="12"/>
       <c r="J28" s="21"/>
     </row>
-    <row r="29" ht="20.75" customHeight="1" spans="1:10">
+    <row r="29" spans="1:10" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="13"/>
       <c r="B29" s="13"/>
       <c r="C29" s="14"/>
       <c r="D29" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="E29" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="E29" s="14" t="s">
-        <v>78</v>
-      </c>
       <c r="F29" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G29" s="14" t="s">
         <v>1</v>
@@ -2418,18 +1859,18 @@
       <c r="I29" s="14"/>
       <c r="J29" s="22"/>
     </row>
-    <row r="30" ht="20.75" customHeight="1" spans="1:10">
+    <row r="30" spans="1:10" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="11"/>
       <c r="B30" s="11"/>
       <c r="C30" s="12"/>
       <c r="D30" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="E30" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="E30" s="12" t="s">
-        <v>80</v>
-      </c>
       <c r="F30" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G30" s="12" t="s">
         <v>1</v>
@@ -2440,18 +1881,18 @@
       <c r="I30" s="12"/>
       <c r="J30" s="21"/>
     </row>
-    <row r="31" ht="20.75" customHeight="1" spans="1:10">
+    <row r="31" spans="1:10" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="13"/>
       <c r="B31" s="13"/>
       <c r="C31" s="14"/>
       <c r="D31" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="E31" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="E31" s="14" t="s">
-        <v>82</v>
-      </c>
       <c r="F31" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G31" s="14" t="s">
         <v>1</v>
@@ -2462,20 +1903,20 @@
       <c r="I31" s="14"/>
       <c r="J31" s="22"/>
     </row>
-    <row r="32" ht="20.75" customHeight="1" spans="1:10">
+    <row r="32" spans="1:10" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="11"/>
       <c r="B32" s="11"/>
       <c r="C32" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D32" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="E32" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="E32" s="12" t="s">
-        <v>84</v>
-      </c>
       <c r="F32" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G32" s="12" t="s">
         <v>1</v>
@@ -2486,66 +1927,66 @@
       <c r="I32" s="12"/>
       <c r="J32" s="21"/>
     </row>
-    <row r="33" ht="20.75" customHeight="1" spans="1:10">
+    <row r="33" spans="1:10" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="13"/>
       <c r="B33" s="13"/>
       <c r="C33" s="14"/>
       <c r="D33" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="E33" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="E33" s="14" t="s">
+      <c r="F33" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="G33" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="H33" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="I33" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="F33" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="G33" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="H33" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="I33" s="14" t="s">
-        <v>87</v>
-      </c>
       <c r="J33" s="22"/>
     </row>
-    <row r="34" ht="20.75" customHeight="1" spans="1:10">
+    <row r="34" spans="1:10" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="11"/>
       <c r="B34" s="11"/>
       <c r="C34" s="12"/>
       <c r="D34" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="E34" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="E34" s="12" t="s">
+      <c r="F34" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="G34" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H34" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="I34" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="F34" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="G34" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="H34" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="I34" s="12" t="s">
-        <v>90</v>
-      </c>
       <c r="J34" s="21"/>
     </row>
-    <row r="35" ht="20.75" customHeight="1" spans="1:10">
+    <row r="35" spans="1:10" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="13"/>
       <c r="B35" s="13"/>
       <c r="C35" s="14"/>
       <c r="D35" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="E35" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="E35" s="14" t="s">
-        <v>92</v>
-      </c>
       <c r="F35" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G35" s="14" t="s">
         <v>1</v>
@@ -2556,18 +1997,18 @@
       <c r="I35" s="14"/>
       <c r="J35" s="22"/>
     </row>
-    <row r="36" ht="20.75" customHeight="1" spans="1:10">
+    <row r="36" spans="1:10" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="11"/>
       <c r="B36" s="11"/>
       <c r="C36" s="12"/>
       <c r="D36" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="E36" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="E36" s="12" t="s">
-        <v>94</v>
-      </c>
       <c r="F36" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G36" s="12" t="s">
         <v>1</v>
@@ -2578,20 +2019,20 @@
       <c r="I36" s="12"/>
       <c r="J36" s="21"/>
     </row>
-    <row r="37" ht="20.75" customHeight="1" spans="1:10">
+    <row r="37" spans="1:10" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="13"/>
       <c r="B37" s="13"/>
       <c r="C37" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="D37" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="D37" s="14" t="s">
+      <c r="E37" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="E37" s="14" t="s">
-        <v>97</v>
-      </c>
       <c r="F37" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G37" s="14" t="s">
         <v>1</v>
@@ -2602,18 +2043,18 @@
       <c r="I37" s="14"/>
       <c r="J37" s="22"/>
     </row>
-    <row r="38" ht="20.75" customHeight="1" spans="1:10">
+    <row r="38" spans="1:10" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="11"/>
       <c r="B38" s="11"/>
       <c r="C38" s="12"/>
       <c r="D38" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="E38" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="E38" s="12" t="s">
-        <v>99</v>
-      </c>
       <c r="F38" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G38" s="12" t="s">
         <v>1</v>
@@ -2624,18 +2065,18 @@
       <c r="I38" s="12"/>
       <c r="J38" s="21"/>
     </row>
-    <row r="39" ht="20.75" customHeight="1" spans="1:10">
+    <row r="39" spans="1:10" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="13"/>
       <c r="B39" s="13"/>
       <c r="C39" s="14"/>
       <c r="D39" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="E39" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="E39" s="14" t="s">
-        <v>101</v>
-      </c>
       <c r="F39" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G39" s="14" t="s">
         <v>1</v>
@@ -2646,18 +2087,18 @@
       <c r="I39" s="14"/>
       <c r="J39" s="22"/>
     </row>
-    <row r="40" ht="20.75" customHeight="1" spans="1:10">
+    <row r="40" spans="1:10" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="11"/>
       <c r="B40" s="11"/>
       <c r="C40" s="12"/>
       <c r="D40" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="E40" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="E40" s="12" t="s">
-        <v>103</v>
-      </c>
       <c r="F40" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G40" s="12" t="s">
         <v>1</v>
@@ -2668,18 +2109,18 @@
       <c r="I40" s="12"/>
       <c r="J40" s="21"/>
     </row>
-    <row r="41" ht="20.75" customHeight="1" spans="1:10">
+    <row r="41" spans="1:10" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="13"/>
       <c r="B41" s="13"/>
       <c r="C41" s="14"/>
       <c r="D41" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="E41" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="E41" s="14" t="s">
-        <v>105</v>
-      </c>
       <c r="F41" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G41" s="14" t="s">
         <v>1</v>
@@ -2690,18 +2131,18 @@
       <c r="I41" s="14"/>
       <c r="J41" s="22"/>
     </row>
-    <row r="42" ht="20.75" customHeight="1" spans="1:10">
+    <row r="42" spans="1:10" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="11"/>
       <c r="B42" s="11"/>
       <c r="C42" s="12"/>
       <c r="D42" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="E42" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="E42" s="12" t="s">
-        <v>107</v>
-      </c>
       <c r="F42" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G42" s="12" t="s">
         <v>1</v>
@@ -2712,18 +2153,18 @@
       <c r="I42" s="12"/>
       <c r="J42" s="21"/>
     </row>
-    <row r="43" ht="20.75" customHeight="1" spans="1:10">
+    <row r="43" spans="1:10" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="13"/>
       <c r="B43" s="13"/>
       <c r="C43" s="14"/>
       <c r="D43" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="E43" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="E43" s="14" t="s">
-        <v>109</v>
-      </c>
       <c r="F43" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G43" s="14" t="s">
         <v>1</v>
@@ -2734,18 +2175,18 @@
       <c r="I43" s="14"/>
       <c r="J43" s="22"/>
     </row>
-    <row r="44" ht="20.75" customHeight="1" spans="1:10">
+    <row r="44" spans="1:10" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="11"/>
       <c r="B44" s="11"/>
       <c r="C44" s="12"/>
       <c r="D44" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="E44" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="E44" s="12" t="s">
-        <v>111</v>
-      </c>
       <c r="F44" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G44" s="12" t="s">
         <v>1</v>
@@ -2756,18 +2197,18 @@
       <c r="I44" s="12"/>
       <c r="J44" s="21"/>
     </row>
-    <row r="45" ht="20.75" customHeight="1" spans="1:10">
+    <row r="45" spans="1:10" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="13"/>
       <c r="B45" s="13"/>
       <c r="C45" s="14"/>
       <c r="D45" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="E45" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="E45" s="14" t="s">
-        <v>113</v>
-      </c>
       <c r="F45" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G45" s="14" t="s">
         <v>1</v>
@@ -2778,42 +2219,42 @@
       <c r="I45" s="14"/>
       <c r="J45" s="22"/>
     </row>
-    <row r="46" ht="20.75" customHeight="1" spans="1:10">
+    <row r="46" spans="1:10" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="11"/>
       <c r="B46" s="11"/>
       <c r="C46" s="12"/>
       <c r="D46" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="E46" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="E46" s="12" t="s">
+      <c r="F46" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="G46" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H46" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="I46" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="F46" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="G46" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="H46" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="I46" s="12" t="s">
-        <v>116</v>
-      </c>
       <c r="J46" s="21"/>
     </row>
-    <row r="47" ht="20.75" customHeight="1" spans="1:10">
+    <row r="47" spans="1:10" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="13"/>
       <c r="B47" s="13"/>
       <c r="C47" s="14"/>
       <c r="D47" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="E47" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="E47" s="14" t="s">
-        <v>118</v>
-      </c>
       <c r="F47" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G47" s="14" t="s">
         <v>1</v>
@@ -2824,21 +2265,21 @@
       <c r="I47" s="14"/>
       <c r="J47" s="22"/>
     </row>
-    <row r="48" ht="20.75" customHeight="1" spans="1:10">
+    <row r="48" spans="1:10" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B48" s="11" t="s">
         <v>17</v>
       </c>
       <c r="C48" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="D48" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="D48" s="12" t="s">
+      <c r="E48" s="12" t="s">
         <v>121</v>
-      </c>
-      <c r="E48" s="12" t="s">
-        <v>122</v>
       </c>
       <c r="F48" s="12" t="s">
         <v>21</v>
@@ -2852,41 +2293,41 @@
       <c r="I48" s="12"/>
       <c r="J48" s="21"/>
     </row>
-    <row r="49" ht="20.75" customHeight="1" spans="1:10">
+    <row r="49" spans="1:10" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="13"/>
       <c r="B49" s="13"/>
       <c r="C49" s="14"/>
       <c r="D49" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="E49" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="F49" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="G49" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="H49" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="I49" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="E49" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="F49" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="G49" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="H49" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="I49" s="14" t="s">
-        <v>124</v>
-      </c>
       <c r="J49" s="22"/>
     </row>
-    <row r="50" ht="20.75" customHeight="1" spans="1:10">
+    <row r="50" spans="1:10" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="11"/>
       <c r="B50" s="11"/>
       <c r="C50" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E50" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F50" s="12" t="s">
         <v>21</v>
@@ -2900,15 +2341,15 @@
       <c r="I50" s="12"/>
       <c r="J50" s="21"/>
     </row>
-    <row r="51" ht="20.75" customHeight="1" spans="1:10">
+    <row r="51" spans="1:10" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="13"/>
       <c r="B51" s="13"/>
       <c r="C51" s="14"/>
       <c r="D51" s="14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E51" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F51" s="14" t="s">
         <v>21</v>
@@ -2922,15 +2363,15 @@
       <c r="I51" s="14"/>
       <c r="J51" s="22"/>
     </row>
-    <row r="52" ht="20.75" customHeight="1" spans="1:10">
+    <row r="52" spans="1:10" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="11"/>
       <c r="B52" s="11"/>
       <c r="C52" s="12"/>
       <c r="D52" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="E52" s="12" t="s">
         <v>126</v>
-      </c>
-      <c r="E52" s="12" t="s">
-        <v>127</v>
       </c>
       <c r="F52" s="12" t="s">
         <v>21</v>
@@ -2944,17 +2385,17 @@
       <c r="I52" s="12"/>
       <c r="J52" s="21"/>
     </row>
-    <row r="53" ht="20.75" customHeight="1" spans="1:10">
+    <row r="53" spans="1:10" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="13"/>
       <c r="B53" s="13"/>
       <c r="C53" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="D53" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="D53" s="14" t="s">
+      <c r="E53" s="14" t="s">
         <v>129</v>
-      </c>
-      <c r="E53" s="14" t="s">
-        <v>130</v>
       </c>
       <c r="F53" s="14" t="s">
         <v>21</v>
@@ -2968,17 +2409,17 @@
       <c r="I53" s="14"/>
       <c r="J53" s="22"/>
     </row>
-    <row r="54" ht="20.75" customHeight="1" spans="1:10">
+    <row r="54" spans="1:10" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="11"/>
       <c r="B54" s="11"/>
       <c r="C54" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="D54" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="D54" s="12" t="s">
+      <c r="E54" s="12" t="s">
         <v>132</v>
-      </c>
-      <c r="E54" s="12" t="s">
-        <v>133</v>
       </c>
       <c r="F54" s="12" t="s">
         <v>21</v>
@@ -2992,15 +2433,15 @@
       <c r="I54" s="12"/>
       <c r="J54" s="21"/>
     </row>
-    <row r="55" ht="20.75" customHeight="1" spans="1:10">
+    <row r="55" spans="1:10" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="13"/>
       <c r="B55" s="13"/>
       <c r="C55" s="14"/>
       <c r="D55" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="E55" s="14" t="s">
         <v>134</v>
-      </c>
-      <c r="E55" s="14" t="s">
-        <v>135</v>
       </c>
       <c r="F55" s="14" t="s">
         <v>21</v>
@@ -3014,17 +2455,17 @@
       <c r="I55" s="14"/>
       <c r="J55" s="22"/>
     </row>
-    <row r="56" ht="20.75" customHeight="1" spans="1:10">
+    <row r="56" spans="1:10" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="11"/>
       <c r="B56" s="11"/>
       <c r="C56" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="D56" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="E56" s="12" t="s">
         <v>136</v>
-      </c>
-      <c r="D56" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="E56" s="12" t="s">
-        <v>137</v>
       </c>
       <c r="F56" s="12" t="s">
         <v>21</v>
@@ -3037,20 +2478,20 @@
       </c>
       <c r="I56" s="12"/>
       <c r="J56" s="21" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="57" ht="20.75" customHeight="1" spans="1:10">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="13"/>
       <c r="B57" s="13"/>
       <c r="C57" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="D57" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="E57" s="14" t="s">
         <v>138</v>
-      </c>
-      <c r="D57" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="E57" s="14" t="s">
-        <v>139</v>
       </c>
       <c r="F57" s="14" t="s">
         <v>21</v>
@@ -3064,17 +2505,17 @@
       <c r="I57" s="14"/>
       <c r="J57" s="22"/>
     </row>
-    <row r="58" ht="20.75" customHeight="1" spans="1:10">
+    <row r="58" spans="1:10" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="11"/>
       <c r="B58" s="11"/>
       <c r="C58" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="D58" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="E58" s="12" t="s">
         <v>140</v>
-      </c>
-      <c r="D58" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="E58" s="12" t="s">
-        <v>141</v>
       </c>
       <c r="F58" s="12" t="s">
         <v>21</v>
@@ -3088,17 +2529,17 @@
       <c r="I58" s="12"/>
       <c r="J58" s="21"/>
     </row>
-    <row r="59" ht="20.75" customHeight="1" spans="1:10">
+    <row r="59" spans="1:10" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="13"/>
       <c r="B59" s="13"/>
       <c r="C59" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="D59" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="E59" s="14" t="s">
         <v>142</v>
-      </c>
-      <c r="D59" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="E59" s="14" t="s">
-        <v>143</v>
       </c>
       <c r="F59" s="14" t="s">
         <v>21</v>
@@ -3112,43 +2553,43 @@
       <c r="I59" s="14"/>
       <c r="J59" s="22"/>
     </row>
-    <row r="60" ht="20.75" customHeight="1" spans="1:10">
+    <row r="60" spans="1:10" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="11"/>
       <c r="B60" s="11"/>
       <c r="C60" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="D60" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="E60" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="D60" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="E60" s="12" t="s">
+      <c r="F60" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G60" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H60" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="I60" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="F60" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G60" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="H60" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="I60" s="12" t="s">
-        <v>146</v>
-      </c>
       <c r="J60" s="21"/>
     </row>
-    <row r="61" ht="20.75" customHeight="1" spans="1:10">
+    <row r="61" spans="1:10" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="13"/>
       <c r="B61" s="13"/>
       <c r="C61" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="D61" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="E61" s="14" t="s">
         <v>147</v>
-      </c>
-      <c r="D61" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="E61" s="14" t="s">
-        <v>148</v>
       </c>
       <c r="F61" s="14" t="s">
         <v>21</v>
@@ -3162,17 +2603,17 @@
       <c r="I61" s="14"/>
       <c r="J61" s="22"/>
     </row>
-    <row r="62" ht="20.75" customHeight="1" spans="1:10">
+    <row r="62" spans="1:10" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="11"/>
       <c r="B62" s="11"/>
       <c r="C62" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="D62" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="D62" s="12" t="s">
+      <c r="E62" s="12" t="s">
         <v>150</v>
-      </c>
-      <c r="E62" s="12" t="s">
-        <v>151</v>
       </c>
       <c r="F62" s="12" t="s">
         <v>21</v>
@@ -3186,15 +2627,15 @@
       <c r="I62" s="12"/>
       <c r="J62" s="21"/>
     </row>
-    <row r="63" ht="20.75" customHeight="1" spans="1:10">
+    <row r="63" spans="1:10" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="13"/>
       <c r="B63" s="13"/>
       <c r="C63" s="14"/>
       <c r="D63" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="E63" s="14" t="s">
         <v>152</v>
-      </c>
-      <c r="E63" s="14" t="s">
-        <v>153</v>
       </c>
       <c r="F63" s="14" t="s">
         <v>21</v>
@@ -3208,17 +2649,17 @@
       <c r="I63" s="14"/>
       <c r="J63" s="22"/>
     </row>
-    <row r="64" ht="20.75" customHeight="1" spans="1:10">
+    <row r="64" spans="1:10" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="11"/>
       <c r="B64" s="11"/>
       <c r="C64" s="12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D64" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="E64" s="12" t="s">
         <v>150</v>
-      </c>
-      <c r="E64" s="12" t="s">
-        <v>151</v>
       </c>
       <c r="F64" s="12" t="s">
         <v>21</v>
@@ -3232,15 +2673,15 @@
       <c r="I64" s="12"/>
       <c r="J64" s="21"/>
     </row>
-    <row r="65" ht="20.75" customHeight="1" spans="1:10">
+    <row r="65" spans="1:10" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="13"/>
       <c r="B65" s="13"/>
       <c r="C65" s="14"/>
       <c r="D65" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="E65" s="14" t="s">
         <v>152</v>
-      </c>
-      <c r="E65" s="14" t="s">
-        <v>153</v>
       </c>
       <c r="F65" s="14" t="s">
         <v>21</v>
@@ -3254,22 +2695,22 @@
       <c r="I65" s="14"/>
       <c r="J65" s="22"/>
     </row>
-    <row r="66" ht="20.75" customHeight="1" spans="1:10">
+    <row r="66" spans="1:10" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="11"/>
       <c r="B66" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C66" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="D66" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="D66" s="12" t="s">
+      <c r="E66" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="E66" s="12" t="s">
-        <v>157</v>
-      </c>
       <c r="F66" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G66" s="12" t="s">
         <v>1</v>
@@ -3280,18 +2721,18 @@
       <c r="I66" s="12"/>
       <c r="J66" s="21"/>
     </row>
-    <row r="67" ht="20.75" customHeight="1" spans="1:10">
+    <row r="67" spans="1:10" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="13"/>
       <c r="B67" s="13"/>
       <c r="C67" s="14"/>
       <c r="D67" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="E67" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="E67" s="14" t="s">
-        <v>159</v>
-      </c>
       <c r="F67" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G67" s="14" t="s">
         <v>1</v>
@@ -3302,18 +2743,18 @@
       <c r="I67" s="14"/>
       <c r="J67" s="22"/>
     </row>
-    <row r="68" ht="20.75" customHeight="1" spans="1:10">
+    <row r="68" spans="1:10" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="11"/>
       <c r="B68" s="11"/>
       <c r="C68" s="12"/>
       <c r="D68" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="E68" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="E68" s="12" t="s">
-        <v>161</v>
-      </c>
       <c r="F68" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G68" s="12" t="s">
         <v>1</v>
@@ -3324,18 +2765,18 @@
       <c r="I68" s="12"/>
       <c r="J68" s="21"/>
     </row>
-    <row r="69" ht="20.75" customHeight="1" spans="1:10">
+    <row r="69" spans="1:10" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="13"/>
       <c r="B69" s="13"/>
       <c r="C69" s="14"/>
       <c r="D69" s="14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E69" s="14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F69" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G69" s="14" t="s">
         <v>1</v>
@@ -3346,96 +2787,96 @@
       <c r="I69" s="14"/>
       <c r="J69" s="22"/>
     </row>
-    <row r="70" ht="20.75" customHeight="1" spans="1:10">
+    <row r="70" spans="1:10" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="11"/>
       <c r="B70" s="11"/>
       <c r="C70" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="D70" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="E70" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="D70" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="E70" s="12" t="s">
+      <c r="F70" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="G70" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H70" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="I70" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="F70" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="G70" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="H70" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="I70" s="12" t="s">
-        <v>165</v>
-      </c>
       <c r="J70" s="21"/>
     </row>
-    <row r="71" ht="20.75" customHeight="1" spans="1:10">
+    <row r="71" spans="1:10" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="13"/>
       <c r="B71" s="13"/>
       <c r="C71" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="D71" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="D71" s="14" t="s">
+      <c r="E71" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="E71" s="14" t="s">
+      <c r="F71" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="G71" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="H71" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="I71" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="F71" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="G71" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="H71" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="I71" s="14" t="s">
-        <v>169</v>
-      </c>
       <c r="J71" s="22"/>
     </row>
-    <row r="72" ht="20.75" customHeight="1" spans="1:10">
+    <row r="72" spans="1:10" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="11"/>
       <c r="B72" s="11"/>
       <c r="C72" s="12"/>
       <c r="D72" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="E72" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="E72" s="12" t="s">
+      <c r="F72" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="G72" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H72" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="I72" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="F72" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="G72" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="H72" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="I72" s="12" t="s">
-        <v>172</v>
-      </c>
       <c r="J72" s="21"/>
     </row>
-    <row r="73" ht="20.75" customHeight="1" spans="1:10">
+    <row r="73" spans="1:10" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="13"/>
       <c r="B73" s="13"/>
       <c r="C73" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D73" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="E73" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="E73" s="14" t="s">
-        <v>174</v>
-      </c>
       <c r="F73" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G73" s="14" t="s">
         <v>1</v>
@@ -3446,66 +2887,66 @@
       <c r="I73" s="14"/>
       <c r="J73" s="22"/>
     </row>
-    <row r="74" ht="20.75" customHeight="1" spans="1:10">
+    <row r="74" spans="1:10" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="11"/>
       <c r="B74" s="11"/>
       <c r="C74" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="D74" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="D74" s="12" t="s">
+      <c r="E74" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="E74" s="12" t="s">
-        <v>177</v>
-      </c>
       <c r="F74" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G74" s="12"/>
       <c r="H74" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I74" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J74" s="21"/>
     </row>
-    <row r="75" ht="20.75" customHeight="1" spans="1:10">
+    <row r="75" spans="1:10" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="13"/>
       <c r="B75" s="13"/>
       <c r="C75" s="14"/>
       <c r="D75" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="E75" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="E75" s="14" t="s">
-        <v>180</v>
-      </c>
       <c r="F75" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G75" s="14"/>
       <c r="H75" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I75" s="14" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J75" s="22"/>
     </row>
-    <row r="76" ht="20.75" customHeight="1" spans="1:10">
+    <row r="76" spans="1:10" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="11"/>
       <c r="B76" s="11"/>
       <c r="C76" s="12" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D76" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="E76" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="E76" s="12" t="s">
-        <v>183</v>
-      </c>
       <c r="F76" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G76" s="12" t="s">
         <v>1</v>
@@ -3516,42 +2957,42 @@
       <c r="I76" s="12"/>
       <c r="J76" s="21"/>
     </row>
-    <row r="77" ht="20.75" customHeight="1" spans="1:10">
+    <row r="77" spans="1:10" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="13"/>
       <c r="B77" s="13"/>
       <c r="C77" s="14"/>
       <c r="D77" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="E77" s="14" t="s">
         <v>184</v>
       </c>
-      <c r="E77" s="14" t="s">
+      <c r="F77" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="G77" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="H77" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="I77" s="14" t="s">
         <v>185</v>
       </c>
-      <c r="F77" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="G77" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="H77" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="I77" s="14" t="s">
-        <v>186</v>
-      </c>
       <c r="J77" s="22"/>
     </row>
-    <row r="78" ht="20.75" customHeight="1" spans="1:10">
+    <row r="78" spans="1:10" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="11"/>
       <c r="B78" s="11"/>
       <c r="C78" s="12"/>
       <c r="D78" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="E78" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="E78" s="12" t="s">
-        <v>188</v>
-      </c>
       <c r="F78" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G78" s="12" t="s">
         <v>1</v>
@@ -3562,18 +3003,18 @@
       <c r="I78" s="12"/>
       <c r="J78" s="21"/>
     </row>
-    <row r="79" ht="20.75" customHeight="1" spans="1:10">
+    <row r="79" spans="1:10" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="13"/>
       <c r="B79" s="13"/>
       <c r="C79" s="14"/>
       <c r="D79" s="14" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E79" s="14" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F79" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G79" s="14" t="s">
         <v>1</v>
@@ -3584,20 +3025,20 @@
       <c r="I79" s="14"/>
       <c r="J79" s="22"/>
     </row>
-    <row r="80" ht="20.75" customHeight="1" spans="1:10">
+    <row r="80" spans="1:10" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="11"/>
       <c r="B80" s="11"/>
       <c r="C80" s="12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D80" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="E80" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="E80" s="12" t="s">
-        <v>183</v>
-      </c>
       <c r="F80" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G80" s="12" t="s">
         <v>1</v>
@@ -3608,42 +3049,42 @@
       <c r="I80" s="12"/>
       <c r="J80" s="21"/>
     </row>
-    <row r="81" ht="20.75" customHeight="1" spans="1:10">
+    <row r="81" spans="1:10" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="13"/>
       <c r="B81" s="13"/>
       <c r="C81" s="14"/>
       <c r="D81" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="E81" s="14" t="s">
         <v>184</v>
       </c>
-      <c r="E81" s="14" t="s">
+      <c r="F81" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="G81" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="H81" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="I81" s="14" t="s">
         <v>185</v>
       </c>
-      <c r="F81" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="G81" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="H81" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="I81" s="14" t="s">
-        <v>186</v>
-      </c>
       <c r="J81" s="22"/>
     </row>
-    <row r="82" ht="20.75" customHeight="1" spans="1:10">
+    <row r="82" spans="1:10" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="11"/>
       <c r="B82" s="11"/>
       <c r="C82" s="12"/>
       <c r="D82" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="E82" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="E82" s="12" t="s">
-        <v>188</v>
-      </c>
       <c r="F82" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G82" s="12" t="s">
         <v>1</v>
@@ -3654,18 +3095,18 @@
       <c r="I82" s="12"/>
       <c r="J82" s="21"/>
     </row>
-    <row r="83" ht="20.75" customHeight="1" spans="1:10">
+    <row r="83" spans="1:10" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="13"/>
       <c r="B83" s="13"/>
       <c r="C83" s="14"/>
       <c r="D83" s="14" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E83" s="14" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F83" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G83" s="14" t="s">
         <v>1</v>
@@ -3677,25 +3118,24 @@
       <c r="J83" s="22"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId1" display="zhiyun4@swdtest&#10;wuweier"/>
+    <hyperlink ref="C4" r:id="rId1" display="mailto:zhiyun4@swdtest"/>
+    <hyperlink ref="B3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C72" sqref="C72:C73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.875" customWidth="1"/>
     <col min="2" max="2" width="22.125" customWidth="1"/>
@@ -3709,7 +3149,7 @@
     <col min="10" max="10" width="28.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20.75" customHeight="1" spans="1:10">
+    <row r="1" spans="1:10" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3725,7 +3165,7 @@
       <c r="I1" s="2"/>
       <c r="J1" s="17"/>
     </row>
-    <row r="2" ht="20.75" customHeight="1" spans="1:9">
+    <row r="2" spans="1:10" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -3740,7 +3180,7 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" ht="41" customHeight="1" spans="1:9">
+    <row r="3" spans="1:10" ht="41.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -3755,7 +3195,7 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" ht="20.75" customHeight="1" spans="1:9">
+    <row r="4" spans="1:10" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
@@ -3770,7 +3210,7 @@
       <c r="H4" s="16"/>
       <c r="I4" s="18"/>
     </row>
-    <row r="5" ht="20.75" customHeight="1" spans="1:10">
+    <row r="5" spans="1:10" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>7</v>
       </c>
@@ -3802,7 +3242,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" ht="20.75" customHeight="1" spans="1:10">
+    <row r="6" spans="1:10" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
         <v>16</v>
       </c>
@@ -3830,7 +3270,7 @@
       <c r="I6" s="12"/>
       <c r="J6" s="21"/>
     </row>
-    <row r="7" ht="20.75" customHeight="1" spans="1:10">
+    <row r="7" spans="1:10" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="13"/>
       <c r="B7" s="13"/>
       <c r="C7" s="14"/>
@@ -3838,7 +3278,7 @@
         <v>23</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F7" s="14" t="s">
         <v>21</v>
@@ -3852,17 +3292,17 @@
       <c r="I7" s="14"/>
       <c r="J7" s="22"/>
     </row>
-    <row r="8" ht="20.75" customHeight="1" spans="1:10">
+    <row r="8" spans="1:10" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="E8" s="12" t="s">
         <v>26</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>27</v>
       </c>
       <c r="F8" s="12" t="s">
         <v>21</v>
@@ -3876,15 +3316,15 @@
       <c r="I8" s="12"/>
       <c r="J8" s="21"/>
     </row>
-    <row r="9" ht="20.75" customHeight="1" spans="1:10">
+    <row r="9" spans="1:10" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="13"/>
       <c r="B9" s="13"/>
       <c r="C9" s="14"/>
       <c r="D9" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="14" t="s">
         <v>28</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>29</v>
       </c>
       <c r="F9" s="14" t="s">
         <v>21</v>
@@ -3898,17 +3338,17 @@
       <c r="I9" s="14"/>
       <c r="J9" s="22"/>
     </row>
-    <row r="10" ht="20.75" customHeight="1" spans="1:10">
+    <row r="10" spans="1:10" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="11"/>
       <c r="B10" s="11"/>
       <c r="C10" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="E10" s="12" t="s">
         <v>31</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>32</v>
       </c>
       <c r="F10" s="12" t="s">
         <v>21</v>
@@ -3922,15 +3362,15 @@
       <c r="I10" s="12"/>
       <c r="J10" s="21"/>
     </row>
-    <row r="11" ht="20.75" customHeight="1" spans="1:10">
+    <row r="11" spans="1:10" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="13"/>
       <c r="B11" s="13"/>
       <c r="C11" s="14"/>
       <c r="D11" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="14" t="s">
         <v>33</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>34</v>
       </c>
       <c r="F11" s="14" t="s">
         <v>21</v>
@@ -3944,17 +3384,17 @@
       <c r="I11" s="14"/>
       <c r="J11" s="22"/>
     </row>
-    <row r="12" ht="20.75" customHeight="1" spans="1:10">
+    <row r="12" spans="1:10" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="11"/>
       <c r="B12" s="11"/>
       <c r="C12" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="E12" s="12" t="s">
         <v>36</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>37</v>
       </c>
       <c r="F12" s="12" t="s">
         <v>21</v>
@@ -3967,42 +3407,42 @@
       </c>
       <c r="I12" s="12"/>
       <c r="J12" s="21" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" ht="20.75" customHeight="1" spans="1:10">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="13"/>
       <c r="B13" s="13"/>
       <c r="C13" s="14"/>
       <c r="D13" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="E13" s="14" t="s">
+      <c r="F13" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="H13" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="F13" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="G13" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="H13" s="14" t="s">
+      <c r="I13" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="I13" s="14" t="s">
-        <v>42</v>
-      </c>
       <c r="J13" s="22"/>
     </row>
-    <row r="14" ht="20.75" customHeight="1" spans="1:10">
+    <row r="14" spans="1:10" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="11"/>
       <c r="B14" s="11"/>
       <c r="C14" s="12"/>
       <c r="D14" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="12" t="s">
         <v>43</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>44</v>
       </c>
       <c r="F14" s="12" t="s">
         <v>21</v>
@@ -4016,17 +3456,17 @@
       <c r="I14" s="12"/>
       <c r="J14" s="21"/>
     </row>
-    <row r="15" ht="20.75" customHeight="1" spans="1:10">
+    <row r="15" spans="1:10" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="13"/>
       <c r="B15" s="13"/>
       <c r="C15" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="E15" s="14" t="s">
         <v>46</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>47</v>
       </c>
       <c r="F15" s="14" t="s">
         <v>21</v>
@@ -4040,15 +3480,15 @@
       <c r="I15" s="14"/>
       <c r="J15" s="22"/>
     </row>
-    <row r="16" ht="20.75" customHeight="1" spans="1:10">
+    <row r="16" spans="1:10" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="11"/>
       <c r="B16" s="11"/>
       <c r="C16" s="12"/>
       <c r="D16" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" s="12" t="s">
         <v>48</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>49</v>
       </c>
       <c r="F16" s="12" t="s">
         <v>21</v>
@@ -4062,22 +3502,22 @@
       <c r="I16" s="12"/>
       <c r="J16" s="21"/>
     </row>
-    <row r="17" ht="20.75" customHeight="1" spans="1:10">
+    <row r="17" spans="1:10" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="13"/>
       <c r="B17" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C17" s="14" t="s">
         <v>18</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G17" s="14" t="s">
         <v>1</v>
@@ -4088,18 +3528,18 @@
       <c r="I17" s="14"/>
       <c r="J17" s="22"/>
     </row>
-    <row r="18" ht="20.75" customHeight="1" spans="1:10">
+    <row r="18" spans="1:10" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="13"/>
       <c r="B18" s="13"/>
       <c r="C18" s="14"/>
       <c r="D18" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G18" s="14" t="s">
         <v>1</v>
@@ -4110,44 +3550,44 @@
       <c r="I18" s="14"/>
       <c r="J18" s="22"/>
     </row>
-    <row r="19" ht="20.75" customHeight="1" spans="1:10">
+    <row r="19" spans="1:10" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="11"/>
       <c r="B19" s="11"/>
       <c r="C19" s="12"/>
       <c r="D19" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E19" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="G19" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="H19" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="I19" s="15" t="s">
         <v>193</v>
       </c>
-      <c r="F19" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="G19" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="H19" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="I19" s="15" t="s">
-        <v>194</v>
-      </c>
       <c r="J19" s="21" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="20" ht="20.75" customHeight="1" spans="1:10">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="13"/>
       <c r="B20" s="13"/>
       <c r="C20" s="14"/>
       <c r="D20" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="E20" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="E20" s="14" t="s">
-        <v>61</v>
-      </c>
       <c r="F20" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G20" s="14" t="s">
         <v>1</v>
@@ -4158,20 +3598,20 @@
       <c r="I20" s="14"/>
       <c r="J20" s="22"/>
     </row>
-    <row r="21" ht="20.75" customHeight="1" spans="1:10">
+    <row r="21" spans="1:10" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="11"/>
       <c r="B21" s="11"/>
       <c r="C21" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D21" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="E21" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="E21" s="12" t="s">
-        <v>63</v>
-      </c>
       <c r="F21" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G21" s="12" t="s">
         <v>1</v>
@@ -4182,18 +3622,18 @@
       <c r="I21" s="12"/>
       <c r="J21" s="21"/>
     </row>
-    <row r="22" ht="20.75" customHeight="1" spans="1:10">
+    <row r="22" spans="1:10" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="13"/>
       <c r="B22" s="13"/>
       <c r="C22" s="14"/>
       <c r="D22" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="E22" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="E22" s="14" t="s">
-        <v>65</v>
-      </c>
       <c r="F22" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G22" s="14" t="s">
         <v>1</v>
@@ -4204,68 +3644,68 @@
       <c r="I22" s="14"/>
       <c r="J22" s="22"/>
     </row>
-    <row r="23" ht="20.75" customHeight="1" spans="1:10">
+    <row r="23" spans="1:10" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="11"/>
       <c r="B23" s="11"/>
       <c r="C23" s="12"/>
       <c r="D23" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="E23" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="E23" s="12" t="s">
+      <c r="F23" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H23" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="I23" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="F23" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="G23" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="H23" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="I23" s="12" t="s">
-        <v>68</v>
-      </c>
       <c r="J23" s="21"/>
     </row>
-    <row r="24" ht="20.75" customHeight="1" spans="1:10">
+    <row r="24" spans="1:10" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="13"/>
       <c r="B24" s="13"/>
       <c r="C24" s="14"/>
       <c r="D24" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="G24" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="H24" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="I24" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="E24" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="F24" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="G24" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="H24" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="I24" s="14" t="s">
-        <v>70</v>
-      </c>
       <c r="J24" s="22"/>
     </row>
-    <row r="25" ht="20.75" customHeight="1" spans="1:10">
+    <row r="25" spans="1:10" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="11"/>
       <c r="B25" s="11"/>
       <c r="C25" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D25" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E25" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="E25" s="12" t="s">
-        <v>72</v>
-      </c>
       <c r="F25" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G25" s="12" t="s">
         <v>1</v>
@@ -4276,18 +3716,18 @@
       <c r="I25" s="12"/>
       <c r="J25" s="21"/>
     </row>
-    <row r="26" ht="20.75" customHeight="1" spans="1:10">
+    <row r="26" spans="1:10" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="13"/>
       <c r="B26" s="13"/>
       <c r="C26" s="14"/>
       <c r="D26" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="E26" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="E26" s="14" t="s">
-        <v>74</v>
-      </c>
       <c r="F26" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G26" s="14" t="s">
         <v>1</v>
@@ -4298,18 +3738,18 @@
       <c r="I26" s="14"/>
       <c r="J26" s="22"/>
     </row>
-    <row r="27" ht="20.75" customHeight="1" spans="1:10">
+    <row r="27" spans="1:10" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="11"/>
       <c r="B27" s="11"/>
       <c r="C27" s="12"/>
       <c r="D27" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E27" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="E27" s="12" t="s">
-        <v>76</v>
-      </c>
       <c r="F27" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G27" s="12" t="s">
         <v>1</v>
@@ -4320,18 +3760,18 @@
       <c r="I27" s="12"/>
       <c r="J27" s="21"/>
     </row>
-    <row r="28" ht="20.75" customHeight="1" spans="1:10">
+    <row r="28" spans="1:10" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="13"/>
       <c r="B28" s="13"/>
       <c r="C28" s="14"/>
       <c r="D28" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="E28" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="E28" s="14" t="s">
-        <v>78</v>
-      </c>
       <c r="F28" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G28" s="14" t="s">
         <v>1</v>
@@ -4342,18 +3782,18 @@
       <c r="I28" s="14"/>
       <c r="J28" s="22"/>
     </row>
-    <row r="29" ht="20.75" customHeight="1" spans="1:10">
+    <row r="29" spans="1:10" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="11"/>
       <c r="B29" s="11"/>
       <c r="C29" s="12"/>
       <c r="D29" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="E29" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="E29" s="12" t="s">
-        <v>80</v>
-      </c>
       <c r="F29" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G29" s="12" t="s">
         <v>1</v>
@@ -4364,18 +3804,18 @@
       <c r="I29" s="12"/>
       <c r="J29" s="21"/>
     </row>
-    <row r="30" ht="20.75" customHeight="1" spans="1:10">
+    <row r="30" spans="1:10" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="13"/>
       <c r="B30" s="13"/>
       <c r="C30" s="14"/>
       <c r="D30" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="E30" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="E30" s="14" t="s">
-        <v>82</v>
-      </c>
       <c r="F30" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G30" s="14" t="s">
         <v>1</v>
@@ -4386,20 +3826,20 @@
       <c r="I30" s="14"/>
       <c r="J30" s="22"/>
     </row>
-    <row r="31" ht="20.75" customHeight="1" spans="1:10">
+    <row r="31" spans="1:10" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="11"/>
       <c r="B31" s="11"/>
       <c r="C31" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D31" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="E31" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="E31" s="12" t="s">
-        <v>84</v>
-      </c>
       <c r="F31" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G31" s="12" t="s">
         <v>1</v>
@@ -4410,66 +3850,66 @@
       <c r="I31" s="12"/>
       <c r="J31" s="21"/>
     </row>
-    <row r="32" ht="20.75" customHeight="1" spans="1:10">
+    <row r="32" spans="1:10" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="13"/>
       <c r="B32" s="13"/>
       <c r="C32" s="14"/>
       <c r="D32" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="E32" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="E32" s="14" t="s">
+      <c r="F32" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="G32" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="H32" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="I32" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="F32" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="G32" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="H32" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="I32" s="14" t="s">
-        <v>87</v>
-      </c>
       <c r="J32" s="22"/>
     </row>
-    <row r="33" ht="20.75" customHeight="1" spans="1:10">
+    <row r="33" spans="1:10" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="11"/>
       <c r="B33" s="11"/>
       <c r="C33" s="12"/>
       <c r="D33" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="E33" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="E33" s="12" t="s">
+      <c r="F33" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="G33" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H33" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="I33" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="F33" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="G33" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="H33" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="I33" s="12" t="s">
-        <v>90</v>
-      </c>
       <c r="J33" s="21"/>
     </row>
-    <row r="34" ht="20.75" customHeight="1" spans="1:10">
+    <row r="34" spans="1:10" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="13"/>
       <c r="B34" s="13"/>
       <c r="C34" s="14"/>
       <c r="D34" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="E34" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="E34" s="14" t="s">
-        <v>92</v>
-      </c>
       <c r="F34" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G34" s="14" t="s">
         <v>1</v>
@@ -4480,18 +3920,18 @@
       <c r="I34" s="14"/>
       <c r="J34" s="22"/>
     </row>
-    <row r="35" ht="20.75" customHeight="1" spans="1:10">
+    <row r="35" spans="1:10" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="11"/>
       <c r="B35" s="11"/>
       <c r="C35" s="12"/>
       <c r="D35" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="E35" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="E35" s="12" t="s">
-        <v>94</v>
-      </c>
       <c r="F35" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G35" s="12" t="s">
         <v>1</v>
@@ -4502,20 +3942,20 @@
       <c r="I35" s="12"/>
       <c r="J35" s="21"/>
     </row>
-    <row r="36" ht="20.75" customHeight="1" spans="1:10">
+    <row r="36" spans="1:10" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="13"/>
       <c r="B36" s="13"/>
       <c r="C36" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="D36" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="D36" s="14" t="s">
+      <c r="E36" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="E36" s="14" t="s">
-        <v>97</v>
-      </c>
       <c r="F36" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G36" s="14" t="s">
         <v>1</v>
@@ -4526,18 +3966,18 @@
       <c r="I36" s="14"/>
       <c r="J36" s="22"/>
     </row>
-    <row r="37" ht="20.75" customHeight="1" spans="1:10">
+    <row r="37" spans="1:10" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="11"/>
       <c r="B37" s="11"/>
       <c r="C37" s="12"/>
       <c r="D37" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="E37" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="E37" s="12" t="s">
-        <v>99</v>
-      </c>
       <c r="F37" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G37" s="12" t="s">
         <v>1</v>
@@ -4548,18 +3988,18 @@
       <c r="I37" s="12"/>
       <c r="J37" s="21"/>
     </row>
-    <row r="38" ht="20.75" customHeight="1" spans="1:10">
+    <row r="38" spans="1:10" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="13"/>
       <c r="B38" s="13"/>
       <c r="C38" s="14"/>
       <c r="D38" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="E38" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="E38" s="14" t="s">
-        <v>101</v>
-      </c>
       <c r="F38" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G38" s="14" t="s">
         <v>1</v>
@@ -4570,18 +4010,18 @@
       <c r="I38" s="14"/>
       <c r="J38" s="22"/>
     </row>
-    <row r="39" ht="20.75" customHeight="1" spans="1:10">
+    <row r="39" spans="1:10" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="11"/>
       <c r="B39" s="11"/>
       <c r="C39" s="12"/>
       <c r="D39" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="E39" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="E39" s="12" t="s">
-        <v>103</v>
-      </c>
       <c r="F39" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G39" s="12" t="s">
         <v>1</v>
@@ -4592,18 +4032,18 @@
       <c r="I39" s="12"/>
       <c r="J39" s="21"/>
     </row>
-    <row r="40" ht="20.75" customHeight="1" spans="1:10">
+    <row r="40" spans="1:10" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="13"/>
       <c r="B40" s="13"/>
       <c r="C40" s="14"/>
       <c r="D40" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="E40" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="E40" s="14" t="s">
-        <v>105</v>
-      </c>
       <c r="F40" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G40" s="14" t="s">
         <v>1</v>
@@ -4614,18 +4054,18 @@
       <c r="I40" s="14"/>
       <c r="J40" s="22"/>
     </row>
-    <row r="41" ht="20.75" customHeight="1" spans="1:10">
+    <row r="41" spans="1:10" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="11"/>
       <c r="B41" s="11"/>
       <c r="C41" s="12"/>
       <c r="D41" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="E41" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="E41" s="12" t="s">
-        <v>107</v>
-      </c>
       <c r="F41" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G41" s="12" t="s">
         <v>1</v>
@@ -4636,18 +4076,18 @@
       <c r="I41" s="12"/>
       <c r="J41" s="21"/>
     </row>
-    <row r="42" ht="20.75" customHeight="1" spans="1:10">
+    <row r="42" spans="1:10" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="13"/>
       <c r="B42" s="13"/>
       <c r="C42" s="14"/>
       <c r="D42" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="E42" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="E42" s="14" t="s">
-        <v>109</v>
-      </c>
       <c r="F42" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G42" s="14" t="s">
         <v>1</v>
@@ -4658,18 +4098,18 @@
       <c r="I42" s="14"/>
       <c r="J42" s="22"/>
     </row>
-    <row r="43" ht="20.75" customHeight="1" spans="1:10">
+    <row r="43" spans="1:10" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="11"/>
       <c r="B43" s="11"/>
       <c r="C43" s="12"/>
       <c r="D43" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="E43" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="E43" s="12" t="s">
-        <v>111</v>
-      </c>
       <c r="F43" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G43" s="12" t="s">
         <v>1</v>
@@ -4680,18 +4120,18 @@
       <c r="I43" s="12"/>
       <c r="J43" s="21"/>
     </row>
-    <row r="44" ht="20.75" customHeight="1" spans="1:10">
+    <row r="44" spans="1:10" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="13"/>
       <c r="B44" s="13"/>
       <c r="C44" s="14"/>
       <c r="D44" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="E44" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="E44" s="14" t="s">
-        <v>113</v>
-      </c>
       <c r="F44" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G44" s="14" t="s">
         <v>1</v>
@@ -4702,42 +4142,42 @@
       <c r="I44" s="14"/>
       <c r="J44" s="22"/>
     </row>
-    <row r="45" ht="20.75" customHeight="1" spans="1:10">
+    <row r="45" spans="1:10" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="11"/>
       <c r="B45" s="11"/>
       <c r="C45" s="12"/>
       <c r="D45" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="E45" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="E45" s="12" t="s">
+      <c r="F45" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="G45" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H45" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="I45" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="F45" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="G45" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="H45" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="I45" s="12" t="s">
-        <v>116</v>
-      </c>
       <c r="J45" s="21"/>
     </row>
-    <row r="46" ht="20.75" customHeight="1" spans="1:10">
+    <row r="46" spans="1:10" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="13"/>
       <c r="B46" s="13"/>
       <c r="C46" s="14"/>
       <c r="D46" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="E46" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="E46" s="14" t="s">
-        <v>118</v>
-      </c>
       <c r="F46" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G46" s="14" t="s">
         <v>1</v>
@@ -4748,21 +4188,21 @@
       <c r="I46" s="14"/>
       <c r="J46" s="22"/>
     </row>
-    <row r="47" ht="20.75" customHeight="1" spans="1:10">
+    <row r="47" spans="1:10" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B47" s="11" t="s">
         <v>17</v>
       </c>
       <c r="C47" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="D47" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="D47" s="12" t="s">
+      <c r="E47" s="12" t="s">
         <v>121</v>
-      </c>
-      <c r="E47" s="12" t="s">
-        <v>122</v>
       </c>
       <c r="F47" s="12" t="s">
         <v>21</v>
@@ -4776,41 +4216,41 @@
       <c r="I47" s="12"/>
       <c r="J47" s="21"/>
     </row>
-    <row r="48" ht="20.75" customHeight="1" spans="1:10">
+    <row r="48" spans="1:10" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="13"/>
       <c r="B48" s="13"/>
       <c r="C48" s="14"/>
       <c r="D48" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="E48" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="F48" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="G48" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="H48" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="I48" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="E48" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="F48" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="G48" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="H48" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="I48" s="14" t="s">
-        <v>124</v>
-      </c>
       <c r="J48" s="22"/>
     </row>
-    <row r="49" ht="20.75" customHeight="1" spans="1:10">
+    <row r="49" spans="1:10" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="11"/>
       <c r="B49" s="11"/>
       <c r="C49" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E49" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F49" s="12" t="s">
         <v>21</v>
@@ -4824,39 +4264,39 @@
       <c r="I49" s="12"/>
       <c r="J49" s="21"/>
     </row>
-    <row r="50" ht="20.75" customHeight="1" spans="1:10">
+    <row r="50" spans="1:10" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="13"/>
       <c r="B50" s="13"/>
       <c r="C50" s="14"/>
       <c r="D50" s="14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E50" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="F50" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="G50" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="H50" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="I50" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="F50" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="G50" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="H50" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="I50" s="14" t="s">
-        <v>196</v>
-      </c>
       <c r="J50" s="22"/>
     </row>
-    <row r="51" ht="20.75" customHeight="1" spans="1:10">
+    <row r="51" spans="1:10" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="11"/>
       <c r="B51" s="11"/>
       <c r="C51" s="12"/>
       <c r="D51" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="E51" s="12" t="s">
         <v>126</v>
-      </c>
-      <c r="E51" s="12" t="s">
-        <v>127</v>
       </c>
       <c r="F51" s="12" t="s">
         <v>21</v>
@@ -4870,17 +4310,17 @@
       <c r="I51" s="12"/>
       <c r="J51" s="21"/>
     </row>
-    <row r="52" ht="20.75" customHeight="1" spans="1:10">
+    <row r="52" spans="1:10" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="13"/>
       <c r="B52" s="13"/>
       <c r="C52" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="D52" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="D52" s="14" t="s">
+      <c r="E52" s="14" t="s">
         <v>129</v>
-      </c>
-      <c r="E52" s="14" t="s">
-        <v>130</v>
       </c>
       <c r="F52" s="14" t="s">
         <v>21</v>
@@ -4894,17 +4334,17 @@
       <c r="I52" s="14"/>
       <c r="J52" s="22"/>
     </row>
-    <row r="53" ht="20.75" customHeight="1" spans="1:10">
+    <row r="53" spans="1:10" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="11"/>
       <c r="B53" s="11"/>
       <c r="C53" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="D53" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="D53" s="12" t="s">
-        <v>132</v>
-      </c>
       <c r="E53" s="12" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F53" s="12" t="s">
         <v>21</v>
@@ -4918,15 +4358,15 @@
       <c r="I53" s="12"/>
       <c r="J53" s="21"/>
     </row>
-    <row r="54" ht="20.75" customHeight="1" spans="1:10">
+    <row r="54" spans="1:10" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="13"/>
       <c r="B54" s="13"/>
       <c r="C54" s="14"/>
       <c r="D54" s="14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E54" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F54" s="14" t="s">
         <v>21</v>
@@ -4940,17 +4380,17 @@
       <c r="I54" s="14"/>
       <c r="J54" s="22"/>
     </row>
-    <row r="55" ht="20.75" customHeight="1" spans="1:10">
+    <row r="55" spans="1:10" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="11"/>
       <c r="B55" s="11"/>
       <c r="C55" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D55" s="12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E55" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F55" s="12" t="s">
         <v>21</v>
@@ -4963,20 +4403,20 @@
       </c>
       <c r="I55" s="12"/>
       <c r="J55" s="21" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="56" ht="20.75" customHeight="1" spans="1:10">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="13"/>
       <c r="B56" s="13"/>
       <c r="C56" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D56" s="14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E56" s="14" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F56" s="14" t="s">
         <v>21</v>
@@ -4990,18 +4430,18 @@
       <c r="I56" s="14"/>
       <c r="J56" s="22"/>
     </row>
-    <row r="57" ht="20.75" customHeight="1" spans="1:10">
+    <row r="57" spans="1:10" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="11"/>
       <c r="B57" s="11"/>
       <c r="C57" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="D57" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="E57" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="D57" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="E57" s="12" t="s">
-        <v>141</v>
-      </c>
       <c r="F57" s="12" t="s">
         <v>21</v>
       </c>
@@ -5009,25 +4449,25 @@
         <v>1</v>
       </c>
       <c r="H57" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I57" s="12" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J57" s="21"/>
     </row>
-    <row r="58" ht="20.75" customHeight="1" spans="1:10">
+    <row r="58" spans="1:10" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="13"/>
       <c r="B58" s="13"/>
       <c r="C58" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="D58" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="E58" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="D58" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="E58" s="14" t="s">
-        <v>143</v>
-      </c>
       <c r="F58" s="14" t="s">
         <v>21</v>
       </c>
@@ -5035,50 +4475,50 @@
         <v>1</v>
       </c>
       <c r="H58" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I58" s="12" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J58" s="22"/>
     </row>
-    <row r="59" ht="20.75" customHeight="1" spans="1:10">
+    <row r="59" spans="1:10" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="11"/>
       <c r="B59" s="11"/>
       <c r="C59" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="D59" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="E59" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="D59" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="E59" s="12" t="s">
+      <c r="F59" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G59" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H59" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="I59" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="F59" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G59" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="H59" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="I59" s="12" t="s">
-        <v>146</v>
-      </c>
       <c r="J59" s="21"/>
     </row>
-    <row r="60" ht="20.75" customHeight="1" spans="1:10">
+    <row r="60" spans="1:10" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="13"/>
       <c r="B60" s="13"/>
       <c r="C60" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="D60" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="E60" s="14" t="s">
         <v>147</v>
-      </c>
-      <c r="D60" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="E60" s="14" t="s">
-        <v>148</v>
       </c>
       <c r="F60" s="14" t="s">
         <v>21</v>
@@ -5092,17 +4532,17 @@
       <c r="I60" s="14"/>
       <c r="J60" s="22"/>
     </row>
-    <row r="61" ht="20.75" customHeight="1" spans="1:10">
+    <row r="61" spans="1:10" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="11"/>
       <c r="B61" s="11"/>
       <c r="C61" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="D61" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="D61" s="12" t="s">
+      <c r="E61" s="12" t="s">
         <v>150</v>
-      </c>
-      <c r="E61" s="12" t="s">
-        <v>151</v>
       </c>
       <c r="F61" s="12" t="s">
         <v>21</v>
@@ -5116,15 +4556,15 @@
       <c r="I61" s="12"/>
       <c r="J61" s="21"/>
     </row>
-    <row r="62" ht="20.75" customHeight="1" spans="1:10">
+    <row r="62" spans="1:10" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="13"/>
       <c r="B62" s="13"/>
       <c r="C62" s="14"/>
       <c r="D62" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="E62" s="14" t="s">
         <v>152</v>
-      </c>
-      <c r="E62" s="14" t="s">
-        <v>153</v>
       </c>
       <c r="F62" s="14" t="s">
         <v>21</v>
@@ -5138,17 +4578,17 @@
       <c r="I62" s="14"/>
       <c r="J62" s="22"/>
     </row>
-    <row r="63" ht="20.75" customHeight="1" spans="1:10">
+    <row r="63" spans="1:10" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="11"/>
       <c r="B63" s="11"/>
       <c r="C63" s="12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D63" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="E63" s="12" t="s">
         <v>150</v>
-      </c>
-      <c r="E63" s="12" t="s">
-        <v>151</v>
       </c>
       <c r="F63" s="12" t="s">
         <v>21</v>
@@ -5162,15 +4602,15 @@
       <c r="I63" s="12"/>
       <c r="J63" s="21"/>
     </row>
-    <row r="64" ht="20.75" customHeight="1" spans="1:10">
+    <row r="64" spans="1:10" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="13"/>
       <c r="B64" s="13"/>
       <c r="C64" s="14"/>
       <c r="D64" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="E64" s="14" t="s">
         <v>152</v>
-      </c>
-      <c r="E64" s="14" t="s">
-        <v>153</v>
       </c>
       <c r="F64" s="14" t="s">
         <v>21</v>
@@ -5184,22 +4624,22 @@
       <c r="I64" s="14"/>
       <c r="J64" s="22"/>
     </row>
-    <row r="65" ht="20.75" customHeight="1" spans="1:10">
+    <row r="65" spans="1:10" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="11"/>
       <c r="B65" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C65" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="D65" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="D65" s="12" t="s">
+      <c r="E65" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="E65" s="12" t="s">
-        <v>157</v>
-      </c>
       <c r="F65" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G65" s="12" t="s">
         <v>1</v>
@@ -5210,18 +4650,18 @@
       <c r="I65" s="12"/>
       <c r="J65" s="21"/>
     </row>
-    <row r="66" ht="20.75" customHeight="1" spans="1:10">
+    <row r="66" spans="1:10" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="13"/>
       <c r="B66" s="13"/>
       <c r="C66" s="14"/>
       <c r="D66" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="E66" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="E66" s="14" t="s">
-        <v>159</v>
-      </c>
       <c r="F66" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G66" s="14" t="s">
         <v>1</v>
@@ -5232,18 +4672,18 @@
       <c r="I66" s="14"/>
       <c r="J66" s="22"/>
     </row>
-    <row r="67" ht="20.75" customHeight="1" spans="1:10">
+    <row r="67" spans="1:10" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="11"/>
       <c r="B67" s="11"/>
       <c r="C67" s="12"/>
       <c r="D67" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="E67" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="E67" s="12" t="s">
-        <v>161</v>
-      </c>
       <c r="F67" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G67" s="12" t="s">
         <v>1</v>
@@ -5254,18 +4694,18 @@
       <c r="I67" s="12"/>
       <c r="J67" s="21"/>
     </row>
-    <row r="68" ht="20.75" customHeight="1" spans="1:10">
+    <row r="68" spans="1:10" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="13"/>
       <c r="B68" s="13"/>
       <c r="C68" s="14"/>
       <c r="D68" s="14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E68" s="14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F68" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G68" s="14" t="s">
         <v>1</v>
@@ -5276,70 +4716,70 @@
       <c r="I68" s="14"/>
       <c r="J68" s="22"/>
     </row>
-    <row r="69" ht="20.75" customHeight="1" spans="1:10">
+    <row r="69" spans="1:10" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="11"/>
       <c r="B69" s="11"/>
       <c r="C69" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="D69" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="E69" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="D69" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="E69" s="12" t="s">
+      <c r="F69" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="G69" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H69" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="I69" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="F69" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="G69" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="H69" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="I69" s="12" t="s">
-        <v>165</v>
-      </c>
       <c r="J69" s="21"/>
     </row>
-    <row r="70" ht="20.75" customHeight="1" spans="1:10">
+    <row r="70" spans="1:10" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="13"/>
       <c r="B70" s="13"/>
       <c r="C70" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="D70" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="D70" s="14" t="s">
+      <c r="E70" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="E70" s="14" t="s">
+      <c r="F70" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="G70" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="H70" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="I70" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="F70" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="G70" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="H70" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="I70" s="14" t="s">
-        <v>169</v>
-      </c>
       <c r="J70" s="22"/>
     </row>
-    <row r="71" ht="20.75" customHeight="1" spans="1:10">
+    <row r="71" spans="1:10" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="11"/>
       <c r="B71" s="11"/>
       <c r="C71" s="12"/>
       <c r="D71" s="12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E71" s="12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F71" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G71" s="12" t="s">
         <v>1</v>
@@ -5350,20 +4790,20 @@
       <c r="I71" s="12"/>
       <c r="J71" s="21"/>
     </row>
-    <row r="72" ht="20.75" customHeight="1" spans="1:10">
+    <row r="72" spans="1:10" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="11"/>
       <c r="B72" s="11"/>
       <c r="C72" s="12" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D72" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="E72" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="E72" s="12" t="s">
-        <v>183</v>
-      </c>
       <c r="F72" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G72" s="12" t="s">
         <v>1</v>
@@ -5374,42 +4814,42 @@
       <c r="I72" s="12"/>
       <c r="J72" s="21"/>
     </row>
-    <row r="73" ht="20.75" customHeight="1" spans="1:10">
+    <row r="73" spans="1:10" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="13"/>
       <c r="B73" s="13"/>
       <c r="C73" s="14"/>
       <c r="D73" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="E73" s="14" t="s">
         <v>184</v>
       </c>
-      <c r="E73" s="14" t="s">
+      <c r="F73" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="G73" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="H73" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="I73" s="14" t="s">
         <v>185</v>
       </c>
-      <c r="F73" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="G73" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="H73" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="I73" s="14" t="s">
-        <v>186</v>
-      </c>
       <c r="J73" s="22"/>
     </row>
-    <row r="74" ht="20.75" customHeight="1" spans="1:10">
+    <row r="74" spans="1:10" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="11"/>
       <c r="B74" s="11"/>
       <c r="C74" s="12"/>
       <c r="D74" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="E74" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="E74" s="12" t="s">
-        <v>188</v>
-      </c>
       <c r="F74" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G74" s="12" t="s">
         <v>1</v>
@@ -5420,18 +4860,18 @@
       <c r="I74" s="12"/>
       <c r="J74" s="21"/>
     </row>
-    <row r="75" ht="20.75" customHeight="1" spans="1:10">
+    <row r="75" spans="1:10" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="13"/>
       <c r="B75" s="13"/>
       <c r="C75" s="14"/>
       <c r="D75" s="14" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E75" s="14" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F75" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G75" s="14" t="s">
         <v>1</v>
@@ -5442,20 +4882,20 @@
       <c r="I75" s="14"/>
       <c r="J75" s="22"/>
     </row>
-    <row r="76" ht="20.75" customHeight="1" spans="1:10">
+    <row r="76" spans="1:10" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="11"/>
       <c r="B76" s="11"/>
       <c r="C76" s="12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D76" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="E76" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="E76" s="12" t="s">
-        <v>183</v>
-      </c>
       <c r="F76" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G76" s="12" t="s">
         <v>1</v>
@@ -5466,42 +4906,42 @@
       <c r="I76" s="12"/>
       <c r="J76" s="21"/>
     </row>
-    <row r="77" ht="20.75" customHeight="1" spans="1:10">
+    <row r="77" spans="1:10" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="13"/>
       <c r="B77" s="13"/>
       <c r="C77" s="14"/>
       <c r="D77" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="E77" s="14" t="s">
         <v>184</v>
       </c>
-      <c r="E77" s="14" t="s">
+      <c r="F77" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="G77" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="H77" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="I77" s="14" t="s">
         <v>185</v>
       </c>
-      <c r="F77" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="G77" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="H77" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="I77" s="14" t="s">
-        <v>186</v>
-      </c>
       <c r="J77" s="22"/>
     </row>
-    <row r="78" ht="20.75" customHeight="1" spans="1:10">
+    <row r="78" spans="1:10" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="11"/>
       <c r="B78" s="11"/>
       <c r="C78" s="12"/>
       <c r="D78" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="E78" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="E78" s="12" t="s">
-        <v>188</v>
-      </c>
       <c r="F78" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G78" s="12" t="s">
         <v>1</v>
@@ -5512,18 +4952,18 @@
       <c r="I78" s="12"/>
       <c r="J78" s="21"/>
     </row>
-    <row r="79" ht="20.75" customHeight="1" spans="1:10">
+    <row r="79" spans="1:10" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="13"/>
       <c r="B79" s="13"/>
       <c r="C79" s="14"/>
       <c r="D79" s="14" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E79" s="14" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F79" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G79" s="14" t="s">
         <v>1</v>
@@ -5535,11 +4975,11 @@
       <c r="J79" s="22"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId1" display="zhiyun4@swdtest&#10;wuweier"/>
+    <hyperlink ref="C4" r:id="rId1" display="mailto:zhiyun4@swdtest"/>
+    <hyperlink ref="B3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>